--- a/data_export/liste_pays_origine.xlsx
+++ b/data_export/liste_pays_origine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA71AF2-979C-7C4C-A721-2691C17DC2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CDC35B-9B64-7444-AF05-576A57BF2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{BBDC933E-D4FE-D94B-9B5B-0FD2C7CD57A9}"/>
+    <workbookView xWindow="6160" yWindow="2040" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BBDC933E-D4FE-D94B-9B5B-0FD2C7CD57A9}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_pays_origine" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,10 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">liste_pays_origine!$A$15:$A$19</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">liste_pays_origine!$B$15:$B$19</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_pays_origine!$A$1:$B$11</definedName>
     <definedName name="DatiEsterni_1" localSheetId="2" hidden="1">liste_province!$A$1:$B$24</definedName>
     <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">liste_region!$A$1:$B$14</definedName>
-    <definedName name="DatiEsterni_2" localSheetId="0" hidden="1">liste_pays_origine!$A$14:$B$19</definedName>
+    <definedName name="DatiEsterni_2" localSheetId="0" hidden="1">liste_pays_origine!$A$14:$B$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>origine_pays</t>
   </si>
@@ -249,9 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -283,846 +280,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Nombre de pays d'origine</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-6C52-D04C-86E4-38F40033B40D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6C52-D04C-86E4-38F40033B40D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6C52-D04C-86E4-38F40033B40D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6C52-D04C-86E4-38F40033B40D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6C52-D04C-86E4-38F40033B40D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.8066710411198493E-2"/>
-                  <c:y val="-5.5009477981918839E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6C52-D04C-86E4-38F40033B40D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11413735783027124"/>
-                  <c:y val="-7.5718139399242185E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6C52-D04C-86E4-38F40033B40D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6C52-D04C-86E4-38F40033B40D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6C52-D04C-86E4-38F40033B40D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.25390266841644787"/>
-                      <c:h val="0.16196777486147565"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6C52-D04C-86E4-38F40033B40D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>liste_pays_origine!$A$15:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Sardeigne</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Italie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Lombardie</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Empire d'Autriche</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Royaume des deux Siciles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>liste_pays_origine!$B$15:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C52-D04C-86E4-38F40033B40D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-CH"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Nombre de pays d'orgine</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>entre 1848-1870</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>liste_pays_origine!$A$15:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Sardeigne</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Italie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Lombardie</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Empire d'Autriche</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Royaume des deux Siciles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>liste_pays_origine!$B$15:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46A1-E04C-896F-B0018448D6F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="398939552"/>
-        <c:axId val="398941264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="398939552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398941264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="398941264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398939552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-CH"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1481,7 +638,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1551,7 +708,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1902,9 +1059,12 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1978,88 +1138,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2116,7 +1196,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2167,13 +1247,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2184,19 +1257,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2234,7 +1300,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2268,495 +1334,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2790,17 +1367,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2809,12 +1386,83 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -2822,86 +1470,23 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2910,24 +1495,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2935,19 +1523,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2955,17 +1535,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2974,9 +1554,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2985,14 +1568,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3001,7 +1584,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3010,7 +1596,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3031,7 +1617,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -3040,13 +1629,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3549,587 +2144,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4489A28F-C63D-F8DF-1F37-042A30B92615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAD1BDA-D65E-3459-1EB4-E9E9D067F00D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4170,7 +2185,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4267,8 +2282,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EDC37D9B-203C-CF42-9AA5-4852A71F36AB}" name="liste_pays_origine3" displayName="liste_pays_origine3" ref="A14:B19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A14:B19" xr:uid="{EDC37D9B-203C-CF42-9AA5-4852A71F36AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EDC37D9B-203C-CF42-9AA5-4852A71F36AB}" name="liste_pays_origine3" displayName="liste_pays_origine3" ref="A14:B18" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A14:B18" xr:uid="{EDC37D9B-203C-CF42-9AA5-4852A71F36AB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{94068036-3D17-7E4E-B2D8-0C21B62B5E42}" uniqueName="1" name="origine_pays_total" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{880CC3C7-2B7B-F041-B692-9A298DEA24F0}" uniqueName="2" name="number" queryTableFieldId="2"/>
@@ -4616,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626D2F23-3ECF-454A-8603-09EA2CA9AD9C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4637,7 +2652,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -4645,7 +2660,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -4653,7 +2668,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -4661,7 +2676,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -4669,7 +2684,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -4677,7 +2692,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -4685,7 +2700,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -4693,7 +2708,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -4701,7 +2716,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -4709,7 +2724,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -4725,7 +2740,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
@@ -4733,7 +2748,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
@@ -4741,35 +2756,26 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
+      <c r="A18" t="s">
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4778,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED35EBD-F834-5C45-9B90-E0EF965F97E3}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4797,7 +2803,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
@@ -4805,7 +2811,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
@@ -4813,7 +2819,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -4821,7 +2827,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -4829,7 +2835,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -4837,7 +2843,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -4845,7 +2851,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
@@ -4853,7 +2859,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -4861,7 +2867,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10">
@@ -4869,7 +2875,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
@@ -4877,7 +2883,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -4885,7 +2891,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -4893,7 +2899,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -4932,7 +2938,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
@@ -4940,7 +2946,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
@@ -4948,7 +2954,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
@@ -4956,7 +2962,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
@@ -4964,7 +2970,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
@@ -4972,7 +2978,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
@@ -4980,7 +2986,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8">
@@ -4988,7 +2994,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9">
@@ -4996,7 +3002,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
@@ -5004,7 +3010,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
@@ -5012,7 +3018,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12">
@@ -5020,7 +3026,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13">
@@ -5028,7 +3034,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14">
@@ -5036,7 +3042,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15">
@@ -5044,7 +3050,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16">
@@ -5052,7 +3058,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17">
@@ -5060,7 +3066,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18">
@@ -5068,7 +3074,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19">
@@ -5076,7 +3082,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20">
@@ -5084,7 +3090,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21">
@@ -5092,7 +3098,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22">
@@ -5100,7 +3106,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23">
@@ -5108,7 +3114,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
       <c r="B24">
